--- a/記帳資料.xlsx
+++ b/記帳資料.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -37,31 +37,16 @@
     <t>Budget</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>食</t>
-  </si>
-  <si>
-    <t>晚餐</t>
+    <t>123</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>薪水</t>
   </si>
   <si>
     <t>2023-05-31</t>
-  </si>
-  <si>
-    <t>5月薪水</t>
-  </si>
-  <si>
-    <t>2023-06-01</t>
-  </si>
-  <si>
-    <t>早餐</t>
-  </si>
-  <si>
-    <t>2023/06/02</t>
-  </si>
-  <si>
-    <t>薪水</t>
   </si>
 </sst>
 </file>
@@ -393,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -424,7 +409,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -433,133 +418,13 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>-200</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>-200</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>-400</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>-20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>1000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/記帳資料.xlsx
+++ b/記帳資料.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>食</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
   </si>
 </sst>
 </file>
@@ -378,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,6 +445,46 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>-1234</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>-23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/記帳資料.xlsx
+++ b/記帳資料.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -34,37 +34,46 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Budget</t>
+    <t>234</t>
+  </si>
+  <si>
+    <t>衣</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>食</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>住</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>育</t>
+  </si>
+  <si>
     <t>收入</t>
-  </si>
-  <si>
-    <t>薪水</t>
-  </si>
-  <si>
-    <t>2023-05-31</t>
-  </si>
-  <si>
-    <t>食</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>2023-06-03</t>
-  </si>
-  <si>
-    <t>行</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t>2023-06-05</t>
   </si>
 </sst>
 </file>
@@ -396,13 +405,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,68 +430,305 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>-12345</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>-122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>-1233</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>-1234</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>-123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>-1233</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
         <v>-1234</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>-124</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>-1234</v>
+      </c>
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>-23</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>1234</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/記帳資料.xlsx
+++ b/記帳資料.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -32,48 +32,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>衣</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>2023-05-31</t>
-  </si>
-  <si>
-    <t>2023-06-02</t>
-  </si>
-  <si>
-    <t>食</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>2023-06-03</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>住</t>
-  </si>
-  <si>
-    <t>行</t>
-  </si>
-  <si>
-    <t>育</t>
-  </si>
-  <si>
-    <t>收入</t>
   </si>
 </sst>
 </file>
@@ -405,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,306 +389,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>-12345</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>-122</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>-1233</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>-1234</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>-123</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>-1233</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>-1234</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>-124</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14">
-        <v>-1234</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>-1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>1234</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/記帳資料.xlsx
+++ b/記帳資料.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -34,49 +34,28 @@
     <t>Date</t>
   </si>
   <si>
-    <t>yunting123</t>
-  </si>
-  <si>
-    <t>衣</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2023-05-31</t>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>gut2003817</t>
   </si>
   <si>
     <t>收入</t>
   </si>
   <si>
-    <t>薪水</t>
-  </si>
-  <si>
-    <t>2023-06-01</t>
-  </si>
-  <si>
-    <t>行</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>2024-10-29</t>
   </si>
   <si>
     <t>住</t>
   </si>
   <si>
-    <t>陶朱隱園管理費</t>
-  </si>
-  <si>
-    <t>2023-06-02</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>2023-06-08</t>
-  </si>
-  <si>
-    <t>900</t>
+    <t>fmfj</t>
+  </si>
+  <si>
+    <t>2024-10-30</t>
+  </si>
+  <si>
+    <t>食物</t>
   </si>
 </sst>
 </file>
@@ -408,13 +387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,39 +412,39 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>-2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>1000000</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1000000</v>
+        <v>-1000</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -473,85 +452,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="D4">
-        <v>-123</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>-158000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>-123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>-1000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
